--- a/cypress/downloads/TaxP&LReport.xlsx
+++ b/cypress/downloads/TaxP&LReport.xlsx
@@ -94,6 +94,27 @@
     <x:t>OP_ASSETS</x:t>
   </x:si>
   <x:si>
+    <x:t>PARAG PARIKH FLEXI CAP FUND- REGULAR PLAN GROWTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68.9477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/04/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/05/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/05/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/06/2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>ICICI PRUDENTIAL LONG TERM EQUITY FUND (TAX SAVING</x:t>
   </x:si>
   <x:si>
@@ -142,12 +163,6 @@
     <x:t>29/12/2021</x:t>
   </x:si>
   <x:si>
-    <x:t>PARAG PARIKH FLEXI CAP FUND- REGULAR PLAN GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68.9477</x:t>
-  </x:si>
-  <x:si>
     <x:t>22/07/2021</x:t>
   </x:si>
   <x:si>
@@ -167,21 +182,6 @@
   </x:si>
   <x:si>
     <x:t>05/01/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/04/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/05/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/06/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/05/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07/06/2021</x:t>
   </x:si>
   <x:si>
     <x:t>ASSETS</x:t>
@@ -793,7 +793,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>483.846</x:v>
+        <x:v>51.6059</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>0</x:v>
@@ -805,7 +805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
@@ -814,7 +814,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>59996.904</x:v>
+        <x:v>2993.1422</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
         <x:v>0</x:v>
@@ -840,34 +840,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>47.0049</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="n">
-        <x:v>6.815</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K17" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="M17" s="0" t="n">
-        <x:v>6.815</x:v>
+        <x:v>3008.3136</x:v>
       </x:c>
       <x:c r="N17" s="0" t="n">
         <x:v>0</x:v>
@@ -893,31 +890,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>68.5101</x:v>
+        <x:v>45.9465</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>438</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>30007.4238</x:v>
+        <x:v>2986.5225</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>0</x:v>
@@ -943,31 +940,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>61.5986</x:v>
+        <x:v>39.9075</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>974</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
-        <x:v>59997.0364</x:v>
+        <x:v>2993.0625</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
         <x:v>0</x:v>
@@ -993,31 +990,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>17.0098</x:v>
+        <x:v>41.7865</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
-        <x:v>6004.4594</x:v>
+        <x:v>3008.628</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
         <x:v>0</x:v>
@@ -1043,31 +1040,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>590.1535</x:v>
+        <x:v>483.846</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="H21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>30097.8285</x:v>
+        <x:v>59996.904</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -1093,31 +1090,34 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>45.3218</x:v>
+        <x:v>6.815</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>2991.2388</x:v>
+        <x:v>6.815</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -1143,31 +1143,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="n">
+        <x:v>68.5101</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="n">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E23" s="0" t="n">
-        <x:v>46.0241</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="n">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J23" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K23" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>2991.5665</x:v>
+        <x:v>30007.4238</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>0</x:v>
@@ -1193,31 +1193,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>48.4863</x:v>
+        <x:v>61.5986</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>3006.1506</x:v>
+        <x:v>59997.0364</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>0</x:v>
@@ -1243,31 +1243,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>49.3802</x:v>
+        <x:v>17.0098</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
-        <x:v>3012.1922</x:v>
+        <x:v>6004.4594</x:v>
       </x:c>
       <x:c r="N25" s="0" t="n">
         <x:v>0</x:v>
@@ -1293,22 +1293,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>51.8377</x:v>
+        <x:v>590.1535</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="H26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>3006.5866</x:v>
+        <x:v>30097.8285</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>0</x:v>
@@ -1343,22 +1343,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>49.6417</x:v>
+        <x:v>45.3218</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>0</x:v>
@@ -1367,7 +1367,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>2978.502</x:v>
+        <x:v>2991.2388</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>0</x:v>
@@ -1393,22 +1393,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>51.7572</x:v>
+        <x:v>46.0241</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -1417,7 +1417,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>3001.9176</x:v>
+        <x:v>2991.5665</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
         <x:v>0</x:v>
@@ -1443,22 +1443,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>51.6059</x:v>
+        <x:v>48.4863</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -1467,7 +1467,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
-        <x:v>2993.1422</x:v>
+        <x:v>3006.1506</x:v>
       </x:c>
       <x:c r="N29" s="0" t="n">
         <x:v>0</x:v>
@@ -1493,22 +1493,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>47.0049</x:v>
+        <x:v>49.3802</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -1517,7 +1517,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>3008.3136</x:v>
+        <x:v>3012.1922</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
@@ -1543,22 +1543,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>45.9465</x:v>
+        <x:v>51.8377</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -1567,7 +1567,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>2986.5225</x:v>
+        <x:v>3006.5866</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
@@ -1593,22 +1593,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>39.9075</x:v>
+        <x:v>49.6417</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
         <x:v>0</x:v>
@@ -1617,7 +1617,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
-        <x:v>2993.0625</x:v>
+        <x:v>2978.502</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
         <x:v>0</x:v>
@@ -1643,22 +1643,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>41.7865</x:v>
+        <x:v>51.7572</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>3008.628</x:v>
+        <x:v>3001.9176</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
         <x:v>0</x:v>

--- a/cypress/downloads/TaxP&LReport.xlsx
+++ b/cypress/downloads/TaxP&LReport.xlsx
@@ -94,12 +94,81 @@
     <x:t>OP_ASSETS</x:t>
   </x:si>
   <x:si>
+    <x:t>ICICI PRUDENTIAL LONG TERM EQUITY FUND (TAX SAVING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>791.1900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/03/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VODAFONE IDEA  LIMITED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INE669E01016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.2400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/01/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AXIS ELSS TAX SAVER FUND - REGULAR GROWTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.0260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/01/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AXIS FLEXI CAP FUND REGULAR PLAN GROWTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.1900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICI PRUDENTIAL TAX PLAN - REGULAR PLAN -  GROWTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INF109K01464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/12/2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>PARAG PARIKH FLEXI CAP FUND- REGULAR PLAN GROWTH</x:t>
   </x:si>
   <x:si>
     <x:t>68.9477</x:t>
   </x:si>
   <x:si>
+    <x:t>22/07/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/08/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/09/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/10/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/11/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/12/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/01/2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>05/04/2022</x:t>
   </x:si>
   <x:si>
@@ -113,75 +182,6 @@
   </x:si>
   <x:si>
     <x:t>07/06/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICI PRUDENTIAL LONG TERM EQUITY FUND (TAX SAVING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>791.1900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/03/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VODAFONE IDEA  LIMITED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INE669E01016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.2400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30/01/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AXIS ELSS TAX SAVER FUND - REGULAR GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84.0260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27/01/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AXIS FLEXI CAP FUND REGULAR PLAN GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.1900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07/03/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICI PRUDENTIAL TAX PLAN - REGULAR PLAN -  GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INF109K01464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29/12/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22/07/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/08/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/09/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/10/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08/11/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/12/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/01/2022</x:t>
   </x:si>
   <x:si>
     <x:t>ASSETS</x:t>
@@ -793,7 +793,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>51.6059</x:v>
+        <x:v>483.846</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>0</x:v>
@@ -805,7 +805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
@@ -814,7 +814,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>2993.1422</x:v>
+        <x:v>59996.904</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
         <x:v>0</x:v>
@@ -840,31 +840,34 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>47.0049</x:v>
+        <x:v>6.815</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
-        <x:v>3008.3136</x:v>
+        <x:v>6.815</x:v>
       </x:c>
       <x:c r="N17" s="0" t="n">
         <x:v>0</x:v>
@@ -890,31 +893,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>45.9465</x:v>
+        <x:v>68.5101</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>2986.5225</x:v>
+        <x:v>30007.4238</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>0</x:v>
@@ -940,31 +943,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>39.9075</x:v>
+        <x:v>61.5986</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
-        <x:v>2993.0625</x:v>
+        <x:v>59997.0364</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
         <x:v>0</x:v>
@@ -990,31 +993,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>41.7865</x:v>
+        <x:v>17.0098</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
-        <x:v>3008.628</x:v>
+        <x:v>6004.4594</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
         <x:v>0</x:v>
@@ -1040,31 +1043,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>483.846</x:v>
+        <x:v>590.1535</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="H21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>59996.904</x:v>
+        <x:v>30097.8285</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -1090,34 +1093,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>6.815</x:v>
+        <x:v>45.3218</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>6.815</x:v>
+        <x:v>2991.2388</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -1143,31 +1143,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>68.5101</x:v>
+        <x:v>46.0241</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>438</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>30007.4238</x:v>
+        <x:v>2991.5665</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>0</x:v>
@@ -1193,31 +1193,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>61.5986</x:v>
+        <x:v>48.4863</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>974</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>59997.0364</x:v>
+        <x:v>3006.1506</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>0</x:v>
@@ -1243,31 +1243,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="n">
+        <x:v>49.3802</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E25" s="0" t="n">
-        <x:v>17.0098</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
       <x:c r="H25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
-        <x:v>6004.4594</x:v>
+        <x:v>3012.1922</x:v>
       </x:c>
       <x:c r="N25" s="0" t="n">
         <x:v>0</x:v>
@@ -1293,22 +1293,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>590.1535</x:v>
+        <x:v>51.8377</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="H26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>30097.8285</x:v>
+        <x:v>3006.5866</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>0</x:v>
@@ -1343,22 +1343,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>45.3218</x:v>
+        <x:v>49.6417</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>0</x:v>
@@ -1367,7 +1367,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>2991.2388</x:v>
+        <x:v>2978.502</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>0</x:v>
@@ -1393,22 +1393,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>46.0241</x:v>
+        <x:v>51.7572</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -1417,7 +1417,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>2991.5665</x:v>
+        <x:v>3001.9176</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
         <x:v>0</x:v>
@@ -1443,22 +1443,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>48.4863</x:v>
+        <x:v>51.6059</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -1467,7 +1467,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
-        <x:v>3006.1506</x:v>
+        <x:v>2993.1422</x:v>
       </x:c>
       <x:c r="N29" s="0" t="n">
         <x:v>0</x:v>
@@ -1493,22 +1493,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>49.3802</x:v>
+        <x:v>47.0049</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -1517,7 +1517,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>3012.1922</x:v>
+        <x:v>3008.3136</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
@@ -1543,22 +1543,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>51.8377</x:v>
+        <x:v>45.9465</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -1567,7 +1567,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>3006.5866</x:v>
+        <x:v>2986.5225</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
@@ -1593,22 +1593,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>49.6417</x:v>
+        <x:v>39.9075</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
         <x:v>0</x:v>
@@ -1617,7 +1617,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
-        <x:v>2978.502</x:v>
+        <x:v>2993.0625</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
         <x:v>0</x:v>
@@ -1643,22 +1643,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>51.7572</x:v>
+        <x:v>41.7865</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>3001.9176</x:v>
+        <x:v>3008.628</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
         <x:v>0</x:v>
